--- a/MOSH Course/weight3.xlsx
+++ b/MOSH Course/weight3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>08.11.2021</t>
+  </si>
+  <si>
+    <t>09.11.2021</t>
   </si>
 </sst>
 </file>
@@ -688,11 +691,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="124956672"/>
-        <c:axId val="124959360"/>
+        <c:axId val="131837952"/>
+        <c:axId val="131840640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="124956672"/>
+        <c:axId val="131837952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,13 +721,13 @@
         <c:numFmt formatCode="d\=mmm" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124959360"/>
+        <c:crossAx val="131840640"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124959360"/>
+        <c:axId val="131840640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +754,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124956672"/>
+        <c:crossAx val="131837952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1193,11 +1196,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="125315328"/>
-        <c:axId val="125338368"/>
+        <c:axId val="131868928"/>
+        <c:axId val="131891968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="125315328"/>
+        <c:axId val="131868928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,13 +1226,13 @@
         <c:numFmt formatCode="d\=mmm" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125338368"/>
+        <c:crossAx val="131891968"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125338368"/>
+        <c:axId val="131891968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,7 +1259,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125315328"/>
+        <c:crossAx val="131868928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1704,11 +1707,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="124862848"/>
-        <c:axId val="124865152"/>
+        <c:axId val="131748224"/>
+        <c:axId val="131750528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="124862848"/>
+        <c:axId val="131748224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,13 +1737,13 @@
         <c:numFmt formatCode="d\=mmm" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124865152"/>
+        <c:crossAx val="131750528"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124865152"/>
+        <c:axId val="131750528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1770,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124862848"/>
+        <c:crossAx val="131748224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2221,11 +2224,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="124881152"/>
-        <c:axId val="124891904"/>
+        <c:axId val="131766528"/>
+        <c:axId val="132186880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="124881152"/>
+        <c:axId val="131766528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,13 +2254,13 @@
         <c:numFmt formatCode="d\=mmm" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124891904"/>
+        <c:crossAx val="132186880"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124891904"/>
+        <c:axId val="132186880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,7 +2287,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124881152"/>
+        <c:crossAx val="131766528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2744,11 +2747,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="125903232"/>
-        <c:axId val="125905536"/>
+        <c:axId val="132215168"/>
+        <c:axId val="132217472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="125903232"/>
+        <c:axId val="132215168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,13 +2777,13 @@
         <c:numFmt formatCode="d\=mmm" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125905536"/>
+        <c:crossAx val="132217472"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125905536"/>
+        <c:axId val="132217472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2807,7 +2810,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125903232"/>
+        <c:crossAx val="132215168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3273,11 +3276,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="125946112"/>
-        <c:axId val="125948672"/>
+        <c:axId val="132234240"/>
+        <c:axId val="132723456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="125946112"/>
+        <c:axId val="132234240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3303,13 +3306,13 @@
         <c:numFmt formatCode="d\=mmm" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125948672"/>
+        <c:crossAx val="132723456"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125948672"/>
+        <c:axId val="132723456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,7 +3339,542 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125946112"/>
+        <c:crossAx val="132234240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weight loss</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>30.08.2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.09.2021</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>01.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>02.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>03.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>04.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>05.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>06.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>07.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>08.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>09.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.10.2021</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.11.2021</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>02.11.2021</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>03.11.2021</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>04.11.2021</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>05.11.2021</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>06.11.2021</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>07.11.2021</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>08.11.2021</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>09.11.2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>88.85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88.35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>88.35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88.55</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>88.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>88.15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>87.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>86.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>87.55</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>87.35</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>87.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87.35</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>87.15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87.05</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>86.85</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87.45</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>86.55</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>86.35</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>86.65</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>86.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="132743552"/>
+        <c:axId val="132745856"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="132743552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="d\=mmm" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132745856"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="132745856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weight</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132743552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3503,6 +4041,31 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3796,10 +4359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4527,6 +5090,17 @@
         <v>87.6</v>
       </c>
       <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>86.5</v>
+      </c>
+      <c r="C67" t="s">
         <v>3</v>
       </c>
     </row>

--- a/MOSH Course/weight3.xlsx
+++ b/MOSH Course/weight3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>15.11.2021</t>
+  </si>
+  <si>
+    <t>16.11.2021</t>
+  </si>
+  <si>
+    <t>17.11.2021</t>
+  </si>
+  <si>
+    <t>18.11.2021</t>
   </si>
 </sst>
 </file>
@@ -575,9 +584,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -1383,6 +1392,39 @@
         <v>86.1</v>
       </c>
       <c r="C73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>85.55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>86.2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>85.75</v>
+      </c>
+      <c r="C76" t="s">
         <v>3</v>
       </c>
     </row>

--- a/MOSH Course/weight3.xlsx
+++ b/MOSH Course/weight3.xlsx
@@ -165,12 +165,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$83</f>
+              <f>'Sheet1'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$2:$B$83</f>
+              <f>'Sheet1'!$B$2:$B$90</f>
             </numRef>
           </val>
         </ser>
@@ -556,7 +556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R58" sqref="R1:R1048576"/>
@@ -1804,6 +1804,111 @@
         <v>85.25</v>
       </c>
       <c r="C83" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>26.11.2021</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>27.11.2021</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>28.11.2021</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>29.11.2021</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>30.11.2021</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>84.95</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1.12.2021</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>02.12.2021</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
